--- a/Dokumentáció/Tesztbeosztás táblázat.xlsx
+++ b/Dokumentáció/Tesztbeosztás táblázat.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ukeve\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Google Drive (ukeve12)\EKE\11. félév\PTI\A rendszerfejlesztés technológiája ea\Projekt\RFT_project\Dokumentáció\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11040912-B09E-4C46-967B-3D2DF8A76424}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A586A6-EEE8-40BD-B676-641E071F6248}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Teszt szám</t>
   </si>
@@ -44,12 +44,15 @@
   <si>
     <t>Gombok tesztelése</t>
   </si>
+  <si>
+    <t>Mit?</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -57,6 +60,13 @@
       <family val="2"/>
       <charset val="238"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="238"/>
     </font>
   </fonts>
   <fills count="2">
@@ -94,18 +104,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -115,10 +116,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -401,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection sqref="A1:F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -415,315 +428,349 @@
     <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="2" t="s">
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="F2" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
         <v>1</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="B3" s="7"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
         <v>2</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="B4" s="7"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
         <v>3</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="B5" s="7"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
         <v>4</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="B6" s="7"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
         <v>5</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="B7" s="7"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
         <v>6</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="B8" s="7"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
         <v>7</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="B9" s="7"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
         <v>8</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="B10" s="7"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
         <v>9</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="B11" s="7"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
         <v>10</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="B12" s="7"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
         <v>11</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+      <c r="B13" s="7"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
         <v>12</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+      <c r="B14" s="7"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
         <v>13</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+      <c r="B15" s="7"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
         <v>14</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+      <c r="B16" s="7"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
         <v>15</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+      <c r="B17" s="7"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
         <v>16</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+      <c r="B18" s="7"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
         <v>17</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+      <c r="B19" s="7"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
         <v>18</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+      <c r="B20" s="7"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="8"/>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
         <v>19</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+      <c r="B21" s="7"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="8"/>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
         <v>20</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+      <c r="B22" s="7"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="8"/>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
         <v>21</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+      <c r="B23" s="7"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="8"/>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
         <v>22</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+      <c r="B24" s="7"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="8"/>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="7">
         <v>23</v>
       </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+      <c r="B25" s="10"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="8"/>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="7">
         <v>24</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+      <c r="B26" s="10"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="8"/>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="7">
         <v>25</v>
       </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
+      <c r="B27" s="10"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="8"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="7">
         <v>26</v>
       </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
+      <c r="B28" s="10"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="8"/>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="7">
         <v>27</v>
       </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+      <c r="B29" s="10"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="8"/>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="7">
         <v>28</v>
       </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
+      <c r="B30" s="10"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="8"/>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="7">
         <v>29</v>
       </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
+      <c r="B31" s="10"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="8"/>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="7">
         <v>30</v>
       </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="8"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="D1:E1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Dokumentáció/Tesztbeosztás táblázat.xlsx
+++ b/Dokumentáció/Tesztbeosztás táblázat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Google Drive (ukeve12)\EKE\11. félév\PTI\A rendszerfejlesztés technológiája ea\Projekt\RFT_project\Dokumentáció\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A586A6-EEE8-40BD-B676-641E071F6248}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA493DF-F1EB-45C0-AC59-ED5B42808A75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Teszt szám</t>
   </si>
@@ -46,6 +46,15 @@
   </si>
   <si>
     <t>Mit?</t>
+  </si>
+  <si>
+    <t>Ungi Keve</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>0 gomb</t>
   </si>
 </sst>
 </file>
@@ -119,19 +128,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -417,7 +426,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F32"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -429,334 +438,342 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7" t="s">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="8"/>
+      <c r="B3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="7">
+        <v>44194</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="8"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="8"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+      <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="8"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+      <c r="A7" s="5">
         <v>5</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="8"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+      <c r="A8" s="5">
         <v>6</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="8"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+      <c r="A9" s="5">
         <v>7</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="8"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+      <c r="A10" s="5">
         <v>8</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="8"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+      <c r="A11" s="5">
         <v>9</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="8"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
+      <c r="A12" s="5">
         <v>10</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="8"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
+      <c r="A13" s="5">
         <v>11</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="8"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="6"/>
     </row>
     <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
+      <c r="A14" s="5">
         <v>12</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="8"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
+      <c r="A15" s="5">
         <v>13</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="8"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
+      <c r="A16" s="5">
         <v>14</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="8"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
+      <c r="A17" s="5">
         <v>15</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="8"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
+      <c r="A18" s="5">
         <v>16</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="8"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
+      <c r="A19" s="5">
         <v>17</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="8"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
+      <c r="A20" s="5">
         <v>18</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="8"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
+      <c r="A21" s="5">
         <v>19</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="8"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
+      <c r="A22" s="5">
         <v>20</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="8"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="7">
+      <c r="A23" s="5">
         <v>21</v>
       </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="8"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="7">
+      <c r="A24" s="5">
         <v>22</v>
       </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="8"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="7">
+      <c r="A25" s="5">
         <v>23</v>
       </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="7">
+      <c r="A26" s="5">
         <v>24</v>
       </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="7">
+      <c r="A27" s="5">
         <v>25</v>
       </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="6"/>
     </row>
     <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="7">
+      <c r="A28" s="5">
         <v>26</v>
       </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="6"/>
     </row>
     <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="7">
+      <c r="A29" s="5">
         <v>27</v>
       </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="7">
+      <c r="A30" s="5">
         <v>28</v>
       </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="6"/>
     </row>
     <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="7">
+      <c r="A31" s="5">
         <v>29</v>
       </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="6"/>
     </row>
     <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="7">
+      <c r="A32" s="5">
         <v>30</v>
       </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="6"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>

--- a/Dokumentáció/Tesztbeosztás táblázat.xlsx
+++ b/Dokumentáció/Tesztbeosztás táblázat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Google Drive (ukeve12)\EKE\11. félév\PTI\A rendszerfejlesztés technológiája ea\Projekt\RFT_project\Dokumentáció\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA493DF-F1EB-45C0-AC59-ED5B42808A75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADED745D-360D-4961-BDD8-599F19F93DCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="13">
   <si>
     <t>Teszt szám</t>
   </si>
@@ -55,6 +55,15 @@
   </si>
   <si>
     <t>0 gomb</t>
+  </si>
+  <si>
+    <t>Sikeresség</t>
+  </si>
+  <si>
+    <t>Nem sikerült</t>
+  </si>
+  <si>
+    <t>Sikerült</t>
   </si>
 </sst>
 </file>
@@ -115,25 +124,6 @@
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -143,11 +133,63 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -423,372 +465,477 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.140625" style="6"/>
+    <col min="7" max="7" width="12" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="5" t="s">
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="G2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="3">
         <v>44194</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="6" t="s">
+      <c r="E3" s="2"/>
+      <c r="F3" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="G3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="6"/>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="B4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="6"/>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="B5" s="2"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="6"/>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="B6" s="2"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="B7" s="2"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="6"/>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+      <c r="B8" s="2"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="B9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="6"/>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="B10" s="2"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+      <c r="B11" s="2"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
-        <v>11</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+      <c r="B12" s="2"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
+      <c r="B14" s="2"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
         <v>13</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
+      <c r="B15" s="2"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>14</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
+      <c r="B16" s="2"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
         <v>15</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="6"/>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
+      <c r="B17" s="2"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
         <v>16</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="6"/>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
+      <c r="B18" s="2"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
         <v>17</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
+      <c r="B19" s="2"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
         <v>18</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
+      <c r="B20" s="2"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
         <v>19</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="6"/>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
+      <c r="B21" s="2"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
         <v>20</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="6"/>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
+      <c r="B22" s="2"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
         <v>21</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="6"/>
-    </row>
-    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
+      <c r="B23" s="2"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
         <v>22</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="6"/>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
+      <c r="B24" s="2"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
         <v>23</v>
       </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="6"/>
-    </row>
-    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
+      <c r="B25" s="1"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
         <v>24</v>
       </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="6"/>
-    </row>
-    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
+      <c r="B26" s="1"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
         <v>25</v>
       </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="6"/>
-    </row>
-    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
+      <c r="B27" s="1"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
         <v>26</v>
       </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="6"/>
-    </row>
-    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
+      <c r="B28" s="1"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
         <v>27</v>
       </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="6"/>
-    </row>
-    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
+      <c r="B29" s="1"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
         <v>28</v>
       </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="6"/>
-    </row>
-    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="5">
+      <c r="B30" s="1"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
         <v>29</v>
       </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="6"/>
-    </row>
-    <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="5">
+      <c r="B31" s="1"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
         <v>30</v>
       </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="6"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="D1:G1"/>
   </mergeCells>
+  <conditionalFormatting sqref="G3:G32">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"Nem sikerült"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"Sikerült"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/Dokumentáció/Tesztbeosztás táblázat.xlsx
+++ b/Dokumentáció/Tesztbeosztás táblázat.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Google Drive (ukeve12)\EKE\11. félév\PTI\A rendszerfejlesztés technológiája ea\Projekt\RFT_project\Dokumentáció\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADED745D-360D-4961-BDD8-599F19F93DCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E68994-964F-4A1B-86D1-4CA0679FB217}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Munka1" sheetId="1" r:id="rId1"/>
+    <sheet name="Számológép tesztelés" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -133,12 +133,6 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -154,21 +148,17 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -468,41 +458,41 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.140625" style="6"/>
-    <col min="7" max="7" width="12" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="9.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.140625" style="4"/>
+    <col min="7" max="7" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="10"/>
       <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
@@ -915,11 +905,11 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -929,10 +919,10 @@
     <mergeCell ref="D1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G32">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Nem sikerült"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Sikerült"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Dokumentáció/Tesztbeosztás táblázat.xlsx
+++ b/Dokumentáció/Tesztbeosztás táblázat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Google Drive (ukeve12)\EKE\11. félév\PTI\A rendszerfejlesztés technológiája ea\Projekt\RFT_project\Dokumentáció\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E68994-964F-4A1B-86D1-4CA0679FB217}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99AA8D46-EF4E-44C1-B298-659F011D9B9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="14">
   <si>
     <t>Teszt szám</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>Sikerült</t>
+  </si>
+  <si>
+    <t>1 gomb</t>
   </si>
 </sst>
 </file>
@@ -122,7 +125,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -147,6 +150,12 @@
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -458,7 +467,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -473,26 +482,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="10"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="12"/>
       <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
@@ -531,13 +540,21 @@
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="10">
+        <v>44195</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2" t="s">
-        <v>11</v>
+      <c r="F4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">

--- a/Dokumentáció/Tesztbeosztás táblázat.xlsx
+++ b/Dokumentáció/Tesztbeosztás táblázat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Google Drive (ukeve12)\EKE\11. félév\PTI\A rendszerfejlesztés technológiája ea\Projekt\RFT_project\Dokumentáció\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99AA8D46-EF4E-44C1-B298-659F011D9B9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB708319-95A9-408B-82E3-8FDC3679EA3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="15">
   <si>
     <t>Teszt szám</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>1 gomb</t>
+  </si>
+  <si>
+    <t>2 gomb</t>
   </si>
 </sst>
 </file>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -155,6 +158,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -467,7 +473,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -482,26 +488,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="12"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="13"/>
       <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
@@ -544,7 +550,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="10">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>8</v>
@@ -561,13 +567,21 @@
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="2"/>
+      <c r="B5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="3">
+        <v>44194</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2" t="s">
-        <v>11</v>
+      <c r="F5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">

--- a/Dokumentáció/Tesztbeosztás táblázat.xlsx
+++ b/Dokumentáció/Tesztbeosztás táblázat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Google Drive (ukeve12)\EKE\11. félév\PTI\A rendszerfejlesztés technológiája ea\Projekt\RFT_project\Dokumentáció\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB708319-95A9-408B-82E3-8FDC3679EA3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FB82E17-2BAA-493C-9B89-2FF39329A2DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="16">
   <si>
     <t>Teszt szám</t>
   </si>
@@ -70,13 +70,16 @@
   </si>
   <si>
     <t>2 gomb</t>
+  </si>
+  <si>
+    <t>3 gomb</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,6 +94,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="238"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -128,7 +138,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -161,6 +171,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -473,7 +489,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="G5" sqref="G5:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -488,26 +504,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="13"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="15"/>
       <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
@@ -588,13 +604,21 @@
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="2"/>
+      <c r="B6" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="13">
+        <v>44194</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2" t="s">
-        <v>11</v>
+      <c r="F6" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -949,6 +973,7 @@
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:G1"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G3:G32">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Nem sikerült"</formula>

--- a/Dokumentáció/Tesztbeosztás táblázat.xlsx
+++ b/Dokumentáció/Tesztbeosztás táblázat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Google Drive (ukeve12)\EKE\11. félév\PTI\A rendszerfejlesztés technológiája ea\Projekt\RFT_project\Dokumentáció\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FB82E17-2BAA-493C-9B89-2FF39329A2DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB83E7EF-E2F9-49F6-B4D5-54689679310C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="17">
   <si>
     <t>Teszt szám</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>3 gomb</t>
+  </si>
+  <si>
+    <t>4 gomb</t>
   </si>
 </sst>
 </file>
@@ -138,7 +141,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -171,6 +174,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -489,7 +498,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:G6"/>
+      <selection activeCell="W9" sqref="W9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -504,26 +513,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="15"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="17"/>
       <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
@@ -625,13 +634,21 @@
       <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="2"/>
+      <c r="B7" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="15">
+        <v>44194</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>8</v>
+      </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2" t="s">
-        <v>11</v>
+      <c r="F7" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">

--- a/Dokumentáció/Tesztbeosztás táblázat.xlsx
+++ b/Dokumentáció/Tesztbeosztás táblázat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Google Drive (ukeve12)\EKE\11. félév\PTI\A rendszerfejlesztés technológiája ea\Projekt\RFT_project\Dokumentáció\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB83E7EF-E2F9-49F6-B4D5-54689679310C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E02D45E4-EFDD-4173-A149-DD2C1084F3A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="16">
   <si>
     <t>Teszt szám</t>
   </si>
@@ -73,9 +73,6 @@
   </si>
   <si>
     <t>3 gomb</t>
-  </si>
-  <si>
-    <t>4 gomb</t>
   </si>
 </sst>
 </file>
@@ -498,7 +495,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W9" sqref="W9"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -634,21 +631,13 @@
       <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="15">
-        <v>44194</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>8</v>
-      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="14"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="14" t="s">
-        <v>16</v>
-      </c>
+      <c r="F7" s="14"/>
       <c r="G7" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">

--- a/Dokumentáció/Tesztbeosztás táblázat.xlsx
+++ b/Dokumentáció/Tesztbeosztás táblázat.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Google Drive (ukeve12)\EKE\11. félév\PTI\A rendszerfejlesztés technológiája ea\Projekt\RFT_project\Dokumentáció\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EKE\RFT\beadandó\RFT_project\Dokumentáció\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E02D45E4-EFDD-4173-A149-DD2C1084F3A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Számológép tesztelés" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="18">
   <si>
     <t>Teszt szám</t>
   </si>
@@ -73,12 +72,18 @@
   </si>
   <si>
     <t>3 gomb</t>
+  </si>
+  <si>
+    <t>Boros Lili</t>
+  </si>
+  <si>
+    <t>4 gomb</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -138,7 +143,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -177,6 +182,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -195,7 +203,27 @@
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -491,11 +519,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -510,26 +538,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="17"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="18"/>
       <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
@@ -631,13 +659,21 @@
       <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="14"/>
+      <c r="B7" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="16">
+        <v>44194</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>8</v>
+      </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14" t="s">
-        <v>11</v>
+      <c r="F7" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -981,10 +1017,10 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G3:G32">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"Nem sikerült"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Sikerült"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Dokumentáció/Tesztbeosztás táblázat.xlsx
+++ b/Dokumentáció/Tesztbeosztás táblázat.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="19">
   <si>
     <t>Teszt szám</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>4 gomb</t>
+  </si>
+  <si>
+    <t>5 gomb</t>
   </si>
 </sst>
 </file>
@@ -143,7 +146,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -191,6 +194,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -523,7 +529,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -538,26 +544,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="18"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="19"/>
       <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
@@ -680,13 +686,21 @@
       <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="3">
+        <v>44194</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2" t="s">
-        <v>11</v>
+      <c r="F8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">

--- a/Dokumentáció/Tesztbeosztás táblázat.xlsx
+++ b/Dokumentáció/Tesztbeosztás táblázat.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="20">
   <si>
     <t>Teszt szám</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>5 gomb</t>
+  </si>
+  <si>
+    <t>6 gomb</t>
   </si>
 </sst>
 </file>
@@ -146,7 +149,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -194,6 +197,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -529,7 +535,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -544,26 +550,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="19"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="20"/>
       <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
@@ -707,13 +713,21 @@
       <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="3">
+        <v>44194</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2" t="s">
-        <v>11</v>
+      <c r="F9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">

--- a/Dokumentáció/Tesztbeosztás táblázat.xlsx
+++ b/Dokumentáció/Tesztbeosztás táblázat.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="21">
   <si>
     <t>Teszt szám</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>6 gomb</t>
+  </si>
+  <si>
+    <t>7 gomb</t>
   </si>
 </sst>
 </file>
@@ -149,7 +152,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -197,6 +200,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -535,7 +541,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -550,26 +556,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="20"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="21"/>
       <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
@@ -734,13 +740,21 @@
       <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="3">
+        <v>44194</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2" t="s">
-        <v>11</v>
+      <c r="F10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">

--- a/Dokumentáció/Tesztbeosztás táblázat.xlsx
+++ b/Dokumentáció/Tesztbeosztás táblázat.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EKE\RFT\beadandó\RFT_project\Dokumentáció\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\szicsak98\Documents\GitHub\RFT_project\Dokumentáció\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="24">
   <si>
     <t>Teszt szám</t>
   </si>
@@ -87,13 +87,22 @@
   </si>
   <si>
     <t>7 gomb</t>
+  </si>
+  <si>
+    <t>Szicsák Bence</t>
+  </si>
+  <si>
+    <t>Igen</t>
+  </si>
+  <si>
+    <t>8 gomb</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,6 +124,13 @@
       <family val="2"/>
       <charset val="238"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="238"/>
     </font>
   </fonts>
   <fills count="2">
@@ -152,7 +168,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -214,34 +230,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -541,41 +543,41 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.140625" style="4"/>
+    <col min="1" max="1" width="9.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.109375" style="4"/>
     <col min="7" max="7" width="12" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="4"/>
+    <col min="8" max="16384" width="9.109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="22"/>
       <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
@@ -589,7 +591,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -610,7 +612,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -631,7 +633,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -652,7 +654,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -673,7 +675,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -694,7 +696,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -715,7 +717,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -736,7 +738,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -757,20 +759,30 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="3">
+        <v>44194</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -783,7 +795,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -796,7 +808,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -809,7 +821,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -822,7 +834,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -835,7 +847,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -848,7 +860,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -861,7 +873,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -874,7 +886,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -887,7 +899,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -900,7 +912,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -913,7 +925,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -926,7 +938,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -939,7 +951,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -952,7 +964,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>24</v>
       </c>
@@ -965,7 +977,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>25</v>
       </c>
@@ -978,7 +990,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>26</v>
       </c>
@@ -991,7 +1003,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>27</v>
       </c>
@@ -1004,7 +1016,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>28</v>
       </c>
@@ -1017,7 +1029,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>29</v>
       </c>
@@ -1030,7 +1042,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>30</v>
       </c>
@@ -1043,7 +1055,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="6"/>
@@ -1059,10 +1071,10 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G3:G32">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Nem sikerült"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Sikerült"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Dokumentáció/Tesztbeosztás táblázat.xlsx
+++ b/Dokumentáció/Tesztbeosztás táblázat.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="25">
   <si>
     <t>Teszt szám</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>8 gomb</t>
+  </si>
+  <si>
+    <t>9 gomb</t>
   </si>
 </sst>
 </file>
@@ -168,7 +171,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -237,6 +240,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -558,26 +567,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="22"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="25"/>
       <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
@@ -786,13 +795,23 @@
       <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2" t="s">
-        <v>11</v>
+      <c r="B12" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="22">
+        <v>44195</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">

--- a/Dokumentáció/Tesztbeosztás táblázat.xlsx
+++ b/Dokumentáció/Tesztbeosztás táblázat.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="26">
   <si>
     <t>Teszt szám</t>
   </si>
@@ -99,13 +99,16 @@
   </si>
   <si>
     <t>9 gomb</t>
+  </si>
+  <si>
+    <t>Törlés gomb</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,6 +134,13 @@
     <font>
       <sz val="12"/>
       <color rgb="FF00B050"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="238"/>
@@ -171,7 +181,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -246,6 +256,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -552,7 +571,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -567,26 +586,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="25"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="27"/>
       <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
@@ -818,13 +837,23 @@
       <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2" t="s">
-        <v>11</v>
+      <c r="B13" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="25">
+        <v>44196</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="24" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">

--- a/Dokumentáció/Tesztbeosztás táblázat.xlsx
+++ b/Dokumentáció/Tesztbeosztás táblázat.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="27">
   <si>
     <t>Teszt szám</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>Törlés gomb</t>
+  </si>
+  <si>
+    <t>Egész törles</t>
   </si>
 </sst>
 </file>
@@ -246,25 +249,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -571,7 +574,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -586,26 +589,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="27"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="28"/>
       <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
@@ -806,7 +809,7 @@
       <c r="F11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="23" t="s">
+      <c r="G11" s="22" t="s">
         <v>12</v>
       </c>
     </row>
@@ -817,8 +820,8 @@
       <c r="B12" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="22">
-        <v>44195</v>
+      <c r="C12" s="25">
+        <v>44194</v>
       </c>
       <c r="D12" s="21" t="s">
         <v>8</v>
@@ -837,22 +840,22 @@
       <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="23" t="s">
         <v>21</v>
       </c>
       <c r="C13" s="25">
-        <v>44196</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="24" t="s">
+        <v>44194</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="28" t="s">
+      <c r="F13" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="24" t="s">
+      <c r="G13" s="23" t="s">
         <v>12</v>
       </c>
     </row>
@@ -860,13 +863,23 @@
       <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2" t="s">
-        <v>11</v>
+      <c r="B14" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="25">
+        <v>44194</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">

--- a/Dokumentáció/Tesztbeosztás táblázat.xlsx
+++ b/Dokumentáció/Tesztbeosztás táblázat.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\szicsak98\Documents\GitHub\RFT_project\Dokumentáció\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felhasználó\OneDrive\Dokumentumok\GitHub\RFT_project\Dokumentáció\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_A8A2CBA8DA3450A86C23BCCBAC72520278B2EC68" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7E520603-A33F-4C97-BFC4-E821116D9543}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="530" yWindow="1310" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Számológép tesztelés" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="29">
   <si>
     <t>Teszt szám</t>
   </si>
@@ -105,12 +106,18 @@
   </si>
   <si>
     <t>Egész törles</t>
+  </si>
+  <si>
+    <t>Nagy Dávid</t>
+  </si>
+  <si>
+    <t>% gomb</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -570,25 +577,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.109375" style="4"/>
+    <col min="1" max="1" width="9.90625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.90625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.453125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.08984375" style="4"/>
     <col min="7" max="7" width="12" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.109375" style="4"/>
+    <col min="8" max="16384" width="9.08984375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -605,7 +612,7 @@
       <c r="F1" s="27"/>
       <c r="G1" s="27"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="28"/>
@@ -622,7 +629,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -643,7 +650,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -664,7 +671,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -685,7 +692,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -706,7 +713,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -727,7 +734,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -748,7 +755,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -769,7 +776,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -790,7 +797,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -813,7 +820,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -836,7 +843,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -859,7 +866,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -882,20 +889,28 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>13</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="2"/>
+      <c r="B15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="3">
+        <v>44194</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -908,7 +923,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -921,7 +936,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -934,7 +949,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -947,7 +962,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -960,7 +975,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -973,7 +988,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -986,7 +1001,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -999,7 +1014,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -1012,7 +1027,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -1025,7 +1040,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>24</v>
       </c>
@@ -1038,7 +1053,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>25</v>
       </c>
@@ -1051,7 +1066,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>26</v>
       </c>
@@ -1064,7 +1079,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>27</v>
       </c>
@@ -1077,7 +1092,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>28</v>
       </c>
@@ -1090,7 +1105,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>29</v>
       </c>
@@ -1103,7 +1118,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>30</v>
       </c>
@@ -1116,7 +1131,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="6"/>

--- a/Dokumentáció/Tesztbeosztás táblázat.xlsx
+++ b/Dokumentáció/Tesztbeosztás táblázat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felhasználó\OneDrive\Dokumentumok\GitHub\RFT_project\Dokumentáció\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_A8A2CBA8DA3450A86C23BCCBAC72520278B2EC68" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7E520603-A33F-4C97-BFC4-E821116D9543}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="11_A8A2CBA8DA3450A86C23BCCBAC72520278B2EC68" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B772AA03-B563-4A20-A9E5-27F1D23C0C70}"/>
   <bookViews>
     <workbookView xWindow="530" yWindow="1310" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="30">
   <si>
     <t>Teszt szám</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>% gomb</t>
+  </si>
+  <si>
+    <t>* gomb</t>
   </si>
 </sst>
 </file>
@@ -581,7 +584,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -914,13 +917,21 @@
       <c r="A16" s="2">
         <v>14</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="2"/>
+      <c r="B16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="3">
+        <v>44194</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2" t="s">
-        <v>11</v>
+      <c r="F16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">

--- a/Dokumentáció/Tesztbeosztás táblázat.xlsx
+++ b/Dokumentáció/Tesztbeosztás táblázat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felhasználó\OneDrive\Dokumentumok\GitHub\RFT_project\Dokumentáció\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="11_A8A2CBA8DA3450A86C23BCCBAC72520278B2EC68" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B772AA03-B563-4A20-A9E5-27F1D23C0C70}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="11_A8A2CBA8DA3450A86C23BCCBAC72520278B2EC68" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FFDDECFB-BFFF-40C6-A9A7-86810AF68DDE}"/>
   <bookViews>
     <workbookView xWindow="530" yWindow="1310" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="31">
   <si>
     <t>Teszt szám</t>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>* gomb</t>
+  </si>
+  <si>
+    <t>/ gomb</t>
   </si>
 </sst>
 </file>
@@ -194,7 +197,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -272,6 +275,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -583,8 +589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -599,26 +605,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="28"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="29"/>
       <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
@@ -938,13 +944,21 @@
       <c r="A17" s="2">
         <v>15</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="2"/>
+      <c r="B17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="3">
+        <v>44194</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2" t="s">
-        <v>11</v>
+      <c r="F17" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="22" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">

--- a/Dokumentáció/Tesztbeosztás táblázat.xlsx
+++ b/Dokumentáció/Tesztbeosztás táblázat.xlsx
@@ -5,27 +5,35 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felhasználó\OneDrive\Dokumentumok\GitHub\RFT_project\Dokumentáció\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\RFT_project\Dokumentáció\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="11_A8A2CBA8DA3450A86C23BCCBAC72520278B2EC68" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FFDDECFB-BFFF-40C6-A9A7-86810AF68DDE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BDA89CB-D4A1-43F7-9C2D-8AD6E3F6ECAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="530" yWindow="1310" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Számológép tesztelés" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="36">
   <si>
     <t>Teszt szám</t>
   </si>
@@ -118,6 +126,21 @@
   </si>
   <si>
     <t>/ gomb</t>
+  </si>
+  <si>
+    <t>Kovács Bence</t>
+  </si>
+  <si>
+    <t>összeadás</t>
+  </si>
+  <si>
+    <t>kivonás</t>
+  </si>
+  <si>
+    <t>negatív</t>
+  </si>
+  <si>
+    <t>tizedespont</t>
   </si>
 </sst>
 </file>
@@ -197,7 +220,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -278,6 +301,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -589,42 +618,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.90625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.90625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.453125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.36328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.08984375" style="4"/>
+    <col min="1" max="1" width="9.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="4"/>
+    <col min="6" max="6" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.08984375" style="4"/>
+    <col min="8" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="31"/>
       <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
@@ -638,7 +668,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -659,7 +689,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -680,7 +710,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -701,7 +731,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -722,7 +752,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -743,7 +773,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -764,7 +794,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -785,7 +815,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -806,7 +836,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -829,7 +859,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -852,7 +882,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -875,7 +905,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -898,7 +928,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -919,7 +949,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -940,7 +970,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -961,7 +991,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -974,59 +1004,91 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>17</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B19" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="29">
+        <v>44194</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>18</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B20" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="29">
+        <v>44194</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>19</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B21" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="29">
+        <v>44194</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>20</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B22" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="29">
+        <v>44194</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -1039,7 +1101,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -1052,7 +1114,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -1065,7 +1127,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>24</v>
       </c>
@@ -1078,7 +1140,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>25</v>
       </c>
@@ -1091,7 +1153,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>26</v>
       </c>
@@ -1104,7 +1166,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>27</v>
       </c>
@@ -1117,7 +1179,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>28</v>
       </c>
@@ -1130,7 +1192,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>29</v>
       </c>
@@ -1143,7 +1205,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>30</v>
       </c>
@@ -1156,7 +1218,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="6"/>

--- a/Dokumentáció/Tesztbeosztás táblázat.xlsx
+++ b/Dokumentáció/Tesztbeosztás táblázat.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\RFT_project\Dokumentáció\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felhasználó\OneDrive\Dokumentumok\GitHub\RFT_project\Dokumentáció\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BDA89CB-D4A1-43F7-9C2D-8AD6E3F6ECAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{0BDA89CB-D4A1-43F7-9C2D-8AD6E3F6ECAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D6D56E57-654F-4734-AFB0-18DDBE4F9DD4}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Számológép tesztelés" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="37">
   <si>
     <t>Teszt szám</t>
   </si>
@@ -141,6 +141,9 @@
   </si>
   <si>
     <t>tizedespont</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> = gomb</t>
   </si>
 </sst>
 </file>
@@ -618,23 +621,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="4"/>
-    <col min="6" max="6" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.453125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1796875" style="4"/>
+    <col min="6" max="6" width="10.7265625" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="4"/>
+    <col min="8" max="16384" width="9.1796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
@@ -651,7 +654,7 @@
       <c r="F1" s="30"/>
       <c r="G1" s="30"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="30"/>
       <c r="B2" s="30"/>
       <c r="C2" s="31"/>
@@ -668,7 +671,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -689,7 +692,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -710,7 +713,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -731,7 +734,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -752,7 +755,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -773,7 +776,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -794,7 +797,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -815,7 +818,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -836,7 +839,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -859,7 +862,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -882,7 +885,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -905,7 +908,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -928,7 +931,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -949,7 +952,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -970,7 +973,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -991,20 +994,28 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>16</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="2"/>
+      <c r="B18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="3">
+        <v>44194</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -1025,7 +1036,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -1046,7 +1057,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -1067,7 +1078,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -1088,7 +1099,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -1101,7 +1112,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -1114,7 +1125,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -1127,7 +1138,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>24</v>
       </c>
@@ -1140,7 +1151,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>25</v>
       </c>
@@ -1153,7 +1164,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>26</v>
       </c>
@@ -1166,7 +1177,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>27</v>
       </c>
@@ -1179,7 +1190,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>28</v>
       </c>
@@ -1192,7 +1203,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>29</v>
       </c>
@@ -1205,7 +1216,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>30</v>
       </c>
@@ -1218,7 +1229,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="6"/>

--- a/Dokumentáció/Tesztbeosztás táblázat.xlsx
+++ b/Dokumentáció/Tesztbeosztás táblázat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felhasználó\OneDrive\Dokumentumok\GitHub\RFT_project\Dokumentáció\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Google Drive (ukeve12)\EKE\11. félév\PTI\A rendszerfejlesztés technológiája ea\Projekt\RFT_project\Dokumentáció\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{0BDA89CB-D4A1-43F7-9C2D-8AD6E3F6ECAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D6D56E57-654F-4734-AFB0-18DDBE4F9DD4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8482AFB7-528E-40F9-8DDC-4811BDB7F756}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Számológép tesztelés" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="37">
   <si>
     <t>Teszt szám</t>
   </si>
@@ -223,7 +223,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -310,6 +310,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -621,43 +624,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.81640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.81640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.453125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.1796875" style="4"/>
-    <col min="6" max="6" width="10.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="4"/>
+    <col min="6" max="6" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.1796875" style="4"/>
+    <col min="8" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="32"/>
       <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
@@ -671,7 +674,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -684,7 +687,9 @@
       <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="2"/>
+      <c r="E3" s="30" t="s">
+        <v>22</v>
+      </c>
       <c r="F3" s="2" t="s">
         <v>9</v>
       </c>
@@ -692,7 +697,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -705,7 +710,9 @@
       <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="30" t="s">
+        <v>22</v>
+      </c>
       <c r="F4" s="2" t="s">
         <v>13</v>
       </c>
@@ -713,7 +720,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -726,7 +733,9 @@
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="30" t="s">
+        <v>22</v>
+      </c>
       <c r="F5" s="2" t="s">
         <v>14</v>
       </c>
@@ -734,7 +743,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -747,7 +756,9 @@
       <c r="D6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="30" t="s">
+        <v>22</v>
+      </c>
       <c r="F6" s="12" t="s">
         <v>15</v>
       </c>
@@ -755,7 +766,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -768,7 +779,9 @@
       <c r="D7" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="30" t="s">
+        <v>22</v>
+      </c>
       <c r="F7" s="14" t="s">
         <v>17</v>
       </c>
@@ -776,7 +789,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -789,7 +802,9 @@
       <c r="D8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="30" t="s">
+        <v>22</v>
+      </c>
       <c r="F8" s="2" t="s">
         <v>18</v>
       </c>
@@ -797,7 +812,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -810,7 +825,9 @@
       <c r="D9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="2"/>
+      <c r="E9" s="30" t="s">
+        <v>22</v>
+      </c>
       <c r="F9" s="2" t="s">
         <v>19</v>
       </c>
@@ -818,7 +835,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -831,7 +848,9 @@
       <c r="D10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="2"/>
+      <c r="E10" s="30" t="s">
+        <v>22</v>
+      </c>
       <c r="F10" s="2" t="s">
         <v>20</v>
       </c>
@@ -839,7 +858,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -852,7 +871,7 @@
       <c r="D11" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="30" t="s">
         <v>22</v>
       </c>
       <c r="F11" s="2" t="s">
@@ -862,7 +881,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -875,7 +894,7 @@
       <c r="D12" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="30" t="s">
         <v>22</v>
       </c>
       <c r="F12" s="21" t="s">
@@ -885,7 +904,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -898,7 +917,7 @@
       <c r="D13" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="E13" s="30" t="s">
         <v>22</v>
       </c>
       <c r="F13" s="26" t="s">
@@ -908,7 +927,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -921,7 +940,7 @@
       <c r="D14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="30" t="s">
         <v>22</v>
       </c>
       <c r="F14" s="26" t="s">
@@ -931,7 +950,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -944,7 +963,9 @@
       <c r="D15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="2"/>
+      <c r="E15" s="30" t="s">
+        <v>22</v>
+      </c>
       <c r="F15" s="2" t="s">
         <v>28</v>
       </c>
@@ -952,7 +973,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -965,7 +986,9 @@
       <c r="D16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="2"/>
+      <c r="E16" s="30" t="s">
+        <v>22</v>
+      </c>
       <c r="F16" s="2" t="s">
         <v>29</v>
       </c>
@@ -973,7 +996,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -986,7 +1009,9 @@
       <c r="D17" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="2"/>
+      <c r="E17" s="30" t="s">
+        <v>22</v>
+      </c>
       <c r="F17" s="27" t="s">
         <v>30</v>
       </c>
@@ -994,7 +1019,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -1007,7 +1032,9 @@
       <c r="D18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="2"/>
+      <c r="E18" s="30" t="s">
+        <v>22</v>
+      </c>
       <c r="F18" s="2" t="s">
         <v>36</v>
       </c>
@@ -1015,7 +1042,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -1028,7 +1055,9 @@
       <c r="D19" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="28"/>
+      <c r="E19" s="30" t="s">
+        <v>22</v>
+      </c>
       <c r="F19" s="28" t="s">
         <v>32</v>
       </c>
@@ -1036,7 +1065,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -1049,7 +1078,9 @@
       <c r="D20" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="28"/>
+      <c r="E20" s="30" t="s">
+        <v>22</v>
+      </c>
       <c r="F20" s="28" t="s">
         <v>33</v>
       </c>
@@ -1057,7 +1088,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -1070,7 +1101,9 @@
       <c r="D21" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="28"/>
+      <c r="E21" s="30" t="s">
+        <v>22</v>
+      </c>
       <c r="F21" s="28" t="s">
         <v>34</v>
       </c>
@@ -1078,7 +1111,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -1091,7 +1124,9 @@
       <c r="D22" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="28"/>
+      <c r="E22" s="30" t="s">
+        <v>22</v>
+      </c>
       <c r="F22" s="28" t="s">
         <v>35</v>
       </c>
@@ -1099,7 +1134,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -1112,7 +1147,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -1125,7 +1160,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -1138,7 +1173,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>24</v>
       </c>
@@ -1151,7 +1186,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>25</v>
       </c>
@@ -1164,7 +1199,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>26</v>
       </c>
@@ -1177,7 +1212,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>27</v>
       </c>
@@ -1190,7 +1225,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>28</v>
       </c>
@@ -1203,7 +1238,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>29</v>
       </c>
@@ -1216,7 +1251,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>30</v>
       </c>
@@ -1229,7 +1264,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="6"/>

--- a/Dokumentáció/Tesztbeosztás táblázat.xlsx
+++ b/Dokumentáció/Tesztbeosztás táblázat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Google Drive (ukeve12)\EKE\11. félév\PTI\A rendszerfejlesztés technológiája ea\Projekt\RFT_project\Dokumentáció\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8482AFB7-528E-40F9-8DDC-4811BDB7F756}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41250EFC-0271-42B1-BF0D-1D40C9D06C1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="36">
   <si>
     <t>Teszt szám</t>
   </si>
@@ -66,9 +66,6 @@
   </si>
   <si>
     <t>Sikeresség</t>
-  </si>
-  <si>
-    <t>Nem sikerült</t>
   </si>
   <si>
     <t>Sikerült</t>
@@ -223,11 +220,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -625,651 +619,611 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="4"/>
-    <col min="6" max="6" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="3"/>
+    <col min="6" max="6" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="2" t="s">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3">
-        <v>44194</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="30" t="s">
+      <c r="C3" s="2">
+        <v>44194</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="9">
+        <v>44194</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2">
+        <v>44194</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="12">
+        <v>44194</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="15">
+        <v>44194</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="2">
+        <v>44194</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="2">
+        <v>44194</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="2">
+        <v>44194</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="2">
+        <v>44194</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="G11" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="24">
+        <v>44194</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="24">
+        <v>44194</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="10">
-        <v>44194</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="B14" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="24">
+        <v>44194</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="G4" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>3</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="3">
-        <v>44194</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="B15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="2">
+        <v>44194</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="G5" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>4</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="13">
-        <v>44194</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="12" t="s">
+      <c r="B16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="2">
+        <v>44194</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="G6" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>5</v>
-      </c>
-      <c r="B7" s="14" t="s">
+      <c r="B17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="2">
+        <v>44194</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="C7" s="16">
-        <v>44194</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="14" t="s">
+      <c r="B18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="2">
+        <v>44194</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="G7" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="3">
-        <v>44194</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="2" t="s">
+      <c r="B19" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="28">
+        <v>44194</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="G8" s="17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="3">
-        <v>44194</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="2" t="s">
+      <c r="B20" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="28">
+        <v>44194</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="G9" s="18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="3">
-        <v>44194</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="2" t="s">
+      <c r="B21" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="28">
+        <v>44194</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="G10" s="19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="3">
-        <v>44194</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>10</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="25">
-        <v>44194</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" s="21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>11</v>
-      </c>
-      <c r="B13" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="25">
-        <v>44194</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" s="23" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>12</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="25">
-        <v>44194</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" s="22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>13</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="3">
-        <v>44194</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>14</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="3">
-        <v>44194</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G16" s="22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>15</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="3">
-        <v>44194</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" s="27" t="s">
+      <c r="B22" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="G17" s="22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>16</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="3">
-        <v>44194</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G18" s="22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>17</v>
-      </c>
-      <c r="B19" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="29">
-        <v>44194</v>
-      </c>
-      <c r="D19" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="G19" s="22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>18</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="29">
-        <v>44194</v>
-      </c>
-      <c r="D20" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="G20" s="22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>19</v>
-      </c>
-      <c r="B21" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="29">
-        <v>44194</v>
-      </c>
-      <c r="D21" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" s="28" t="s">
+      <c r="C22" s="28">
+        <v>44194</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="G21" s="22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>20</v>
-      </c>
-      <c r="B22" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="29">
-        <v>44194</v>
-      </c>
-      <c r="D22" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="F22" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="G22" s="22" t="s">
-        <v>12</v>
+      <c r="G22" s="21" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>21</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="A23"/>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>22</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="A24"/>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>23</v>
-      </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="A25"/>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>24</v>
-      </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="A26"/>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>25</v>
-      </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="A27"/>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
-        <v>26</v>
-      </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="A28"/>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
-        <v>27</v>
-      </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="A29"/>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
-        <v>28</v>
-      </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="A30"/>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
-        <v>29</v>
-      </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="A31"/>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
-        <v>30</v>
-      </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="A32"/>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1279,7 +1233,7 @@
     <mergeCell ref="D1:G1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="G3:G32">
+  <conditionalFormatting sqref="G3:G22">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Nem sikerült"</formula>
     </cfRule>
